--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_beg.xlsx
@@ -1004,7 +1004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  하지만, 하지만 아트로 언니는 무사할 거야. 우리 중 누구보다도 라이타니엔에 대해 잘 알고 있을 테니까!
+    <t xml:space="preserve">[name="폴리닉"]  하지만, 하지만 아트로 언니는 무사할 거야. 우리 중 누구보다도 라이타니아에 대해 잘 알고 있을 테니까!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_beg.xlsx
@@ -760,7 +760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I wasn’t criticizing them. I was just talking about... those “armed Infected.”
+    <t xml:space="preserve">[name="Folinic"]  I wasn’t criticizing them. I was just talking about... those 'armed Infected.'
 </t>
   </si>
   <si>
@@ -768,11 +768,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  That policeman mentioned “Sarkaz.” We need to look into that first.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  If they do have anything to do with the “armed Infected groups” we know, we’ll have to tread carefully. Things here may be far more complicated than that policeman knows.
+    <t xml:space="preserve">[name="Folinic"]  That policeman mentioned 'Sarkaz.' We need to look into that first.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  If they do have anything to do with the 'armed Infected groups' we know, we’ll have to tread carefully. Things here may be far more complicated than that policeman knows.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_beg.xlsx
@@ -668,7 +668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">3:59 PM \ Cloudy
+    <t xml:space="preserve">3:59 P.M. \ Cloudy
 </t>
   </si>
   <si>
@@ -684,11 +684,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  But... But Atro wouldn’t get herself into trouble. She knows Leithania better than any of us!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Yeah! I’m sure she’s fine!
+    <t xml:space="preserve">[name="Folinic"]  But... But Atro wouldn't get herself into trouble. She knows Leithania better than any of us!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Yeah! I'm sure she's fine!
 </t>
   </si>
   <si>
@@ -700,7 +700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Isn’t this place eerily quiet?
+    <t xml:space="preserve">[name="Suzuran"]  Isn't this place eerily quiet?
 </t>
   </si>
   <si>
@@ -708,15 +708,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I’m seeing plenty of Infected among the citizenry, but that’s not the main point.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I was thinking about it when we fought those rioters before. This residential district is pretty ordinary in design, isn’t it?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  They’ve just gathered up all the Infected to live together. There’s nothing explicitly discriminatory about it.
+    <t xml:space="preserve">[name="Folinic"]  I'm seeing plenty of Infected among the citizenry, but that's not the main point.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I was thinking about it when we fought those rioters before. This residential district is pretty ordinary in design, isn't it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  They've just gathered up all the Infected to live together. There's nothing explicitly discriminatory about it.
 </t>
   </si>
   <si>
@@ -724,7 +724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  But the truth is they’re still having their personal freedom restricted. And aside from a few remarkable Infected, most people live more or less like prisoners.
+    <t xml:space="preserve">[name="Folinic"]  But the truth is they're still having their personal freedom restricted. And aside from a few remarkable Infected, most people live more or less like prisoners.
 </t>
   </si>
   <si>
@@ -732,7 +732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Look here, how long do you think it’s been since this bakery was open?
+    <t xml:space="preserve">[name="Folinic"]  Look here, how long do you think it's been since this bakery was open?
 </t>
   </si>
   <si>
@@ -740,15 +740,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  No one's been sweeping up the dust and leaves around the door. There’s no functioning economy here. No daily life.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I understand they’ve fallen on hard times, but no one wants to buy or sell bread? There’s no public transit? This isn’t normal.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Maybe, maybe it’s because of what happened before? Like the shop owner got scared off or something?
+    <t xml:space="preserve">[name="Folinic"]  No one's been sweeping up the dust and leaves around the door. There's no functioning economy here. No daily life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I understand they've fallen on hard times, but no one wants to buy or sell bread? There's no public transit? This isn't normal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Maybe, maybe it's because of what happened before? Like the shop owner got scared off or something?
 </t>
   </si>
   <si>
@@ -760,11 +760,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I wasn’t criticizing them. I was just talking about... those 'armed Infected.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Do you think they’re...
+    <t xml:space="preserve">[name="Folinic"]  I wasn't criticizing them. I was just talking about... those 'armed Infected.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Do you think they're...
 </t>
   </si>
   <si>
@@ -772,7 +772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  If they do have anything to do with the 'armed Infected groups' we know, we’ll have to tread carefully. Things here may be far more complicated than that policeman knows.
+    <t xml:space="preserve">[name="Folinic"]  If they do have anything to do with the 'armed Infected groups' we know, we'll have to tread carefully. Things here may be far more complicated than that policeman knows.
 </t>
   </si>
   <si>
@@ -780,7 +780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  If the Infected are living well enough, it’s only because the situation isn’t desperate enough.
+    <t xml:space="preserve">[name="Folinic"]  If the Infected are living well enough, it's only because the situation isn't desperate enough.
 </t>
   </si>
   <si>
@@ -792,7 +792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Please don’t worry. Atro is very smart.
+    <t xml:space="preserve">[name="Suzuran"]  Please don't worry. Atro is very smart.
 </t>
   </si>
   <si>
@@ -800,11 +800,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  You’ve been looking very scary since that meeting. But don’t worry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  As long as we try really, really hard, we’ll be able to handle this, just like the senior operators!
+    <t xml:space="preserve">[name="Suzuran"]  You've been looking very scary since that meeting. But don't worry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  As long as we try really, really hard, we'll be able to handle this, just like the senior operators!
 </t>
   </si>
   <si>
@@ -812,7 +812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Aw, is little Lisa comforting me again? Why’s that?
+    <t xml:space="preserve">[name="Folinic"]  Aw, is little Lisa comforting me again? Why's that?
 </t>
   </si>
   <si>
@@ -824,15 +824,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  It’s you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Didn’t I say we don’t need any help? All we need is access...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  I’m sorry. I know you said as much, Miss Folinic, but considering the circumstances, and your unfamiliarity with this place, we have to take precautions to guard against potential accidents.
+    <t xml:space="preserve">[name="Folinic"]  It's you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Didn't I say we don't need any help? All we need is access...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  I'm sorry. I know you said as much, Miss Folinic, but considering the circumstances, and your unfamiliarity with this place, we have to take precautions to guard against potential accidents.
 </t>
   </si>
   <si>
@@ -844,11 +844,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  That’s true! *Cough cough*! Zwölftontechnik Strasse was once Wolumonde’s biggest Infected quarter...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  And now, for certain reasons, it’s become Wolumonde’s number one protest district.
+    <t xml:space="preserve">[name="Tatjana"]  That's true! *Cough cough*! Zwölftontechnik Strasse was once Wolumonde's biggest Infected quarter...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  And now, for certain reasons, it's become Wolumonde's number one protest district.
 </t>
   </si>
   <si>
@@ -856,23 +856,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  I don’t think it’s wise to go any deeper into this place... But if you want to learn more about the situation in Wolumonde, that is a good choice.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Let’s just go for a stroll here. No need to rush things.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I’d be very happy if you were willing to tell me more about Dr. Atro.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  You... really worry about Dr. Atro, don’t you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  We went to school together. And she is one of my very few trusted friends. Not to mention an employee Rhodes Island can’t afford to lose.
+    <t xml:space="preserve">[name="Tatjana"]  I don't think it's wise to go any deeper into this place... But if you want to learn more about the situation in Wolumonde, that is a good choice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Let's just go for a stroll here. No need to rush things.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I'd be very happy if you were willing to tell me more about Dr. Atro.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  You... really worry about Dr. Atro, don't you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  We went to school together. And she is one of my very few trusted friends. Not to mention an employee Rhodes Island can't afford to lose.
 </t>
   </si>
   <si>
@@ -908,7 +908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  She’s always been better at practical work than rote learning.
+    <t xml:space="preserve">[name="Folinic"]  She's always been better at practical work than rote learning.
 </t>
   </si>
   <si>
@@ -916,11 +916,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Heh. I can see her face right now, looking so self-satisfied. That’s Atro.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  This is the first time you’ve smiled since coming to Wolumonde.
+    <t xml:space="preserve">[name="Folinic"]  Heh. I can see her face right now, looking so self-satisfied. That's Atro.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  This is the first time you've smiled since coming to Wolumonde.
 </t>
   </si>
   <si>
@@ -928,7 +928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  You’ve been pretty scary all day long, Folinic.
+    <t xml:space="preserve">[name="Suzuran"]  You've been pretty scary all day long, Folinic.
 </t>
   </si>
   <si>
@@ -936,19 +936,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  There’s... a lot of people up ahead. Is that where everyone is?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Shouldn’t you do something?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  Peaceful assembly isn’t a crime. That alone isn’t grounds to detain them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  They’re looking this way...
+    <t xml:space="preserve">[name="Suzuran"]  There's... a lot of people up ahead. Is that where everyone is?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Shouldn't you do something?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  Peaceful assembly isn't a crime. That alone isn't grounds to detain them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  They're looking this way...
 </t>
   </si>
   <si>
@@ -956,7 +956,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  No, this isn’t right... Who’s that talking to them?
+    <t xml:space="preserve">[name="Folinic"]  No, this isn't right... Who's that talking to them?
 </t>
   </si>
   <si>
@@ -964,7 +964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Behind them, in the very back, there’s—
+    <t xml:space="preserve">[name="Folinic"]  Behind them, in the very back, there's—
 </t>
   </si>
   <si>
@@ -980,7 +980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I know! They’re coming at us! Hey, you, protect yourself!
+    <t xml:space="preserve">[name="Folinic"]  I know! They're coming at us! Hey, you, protect yourself!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_beg.xlsx
@@ -1004,7 +1004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  하지만, 하지만 아트로 언니는 무사할 거야. 우리 중 누구보다도 라이타니아에 대해 잘 알고 있을 테니까!
+    <t xml:space="preserve">[name="폴리닉"]  하지만, 하지만 아트로 언니는 무사할 거야. 우리 중 누구보다도 라이타니엔에 대해 잘 알고 있을 테니까!
 </t>
   </si>
   <si>
